--- a/Data_Scraping/02-Worksheet.xlsx
+++ b/Data_Scraping/02-Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Softwares\Git_Repository\160-IshavVerma-RPA\Data_Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555351F7-644D-4990-AC46-15C9160D629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B140F6-4287-4413-A219-320C71A1E496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1200" windowWidth="14910" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,34 +32,13 @@
 Buy</t>
   </si>
   <si>
-    <t>$32,866,226,247
-671,589 BTC</t>
-  </si>
-  <si>
-    <t>18,797,162 BTC</t>
-  </si>
-  <si>
     <t>Ethereum
 ETH
 Buy</t>
   </si>
   <si>
-    <t>$19,029,844,090
-5,875,787 ETH</t>
-  </si>
-  <si>
-    <t>117,253,397 ETH</t>
-  </si>
-  <si>
     <t>Cardano
 ADA</t>
-  </si>
-  <si>
-    <t>$7,780,932,507
-2,827,110,356 ADA</t>
-  </si>
-  <si>
-    <t>32,143,031,194 ADA</t>
   </si>
   <si>
     <t>Binance Coin
@@ -67,10 +46,6 @@
 Buy</t>
   </si>
   <si>
-    <t>$3,428,318,342
-6,797,940 BNB</t>
-  </si>
-  <si>
     <t>168,137,036 BNB</t>
   </si>
   <si>
@@ -79,21 +54,10 @@
 Buy</t>
   </si>
   <si>
-    <t>$79,215,018,472
-79,176,855,377 USDT</t>
-  </si>
-  <si>
-    <t>65,461,434,001 USDT</t>
-  </si>
-  <si>
     <t>XRP
 XRP</t>
   </si>
   <si>
-    <t>$5,088,569,853
-4,330,897,448 XRP</t>
-  </si>
-  <si>
     <t>46,513,604,835 XRP</t>
   </si>
   <si>
@@ -101,32 +65,14 @@
 DOGE</t>
   </si>
   <si>
-    <t>$2,593,020,974
-8,842,319,206 DOGE</t>
-  </si>
-  <si>
-    <t>131,013,874,083 DOGE</t>
-  </si>
-  <si>
     <t>USD Coin
 USDC</t>
   </si>
   <si>
-    <t>$2,736,599,617
-2,736,053,607 USDC</t>
-  </si>
-  <si>
-    <t>26,971,770,252 USDC</t>
-  </si>
-  <si>
     <t>Polkadot
 DOT</t>
   </si>
   <si>
-    <t>$1,995,814,473
-75,692,231 DOT</t>
-  </si>
-  <si>
     <t>987,579,315 DOT</t>
   </si>
   <si>
@@ -134,71 +80,25 @@
 SOL</t>
   </si>
   <si>
-    <t>$1,617,671,657
-22,829,065 SOL</t>
-  </si>
-  <si>
-    <t>290,662,194 SOL</t>
-  </si>
-  <si>
     <t>Uniswap
 UNI</t>
   </si>
   <si>
-    <t>$365,002,887
-13,356,854 UNI</t>
-  </si>
-  <si>
-    <t>611,610,689 UNI</t>
-  </si>
-  <si>
-    <t>Terra
-LUNA</t>
-  </si>
-  <si>
-    <t>$1,292,269,481
-42,898,463 LUNA</t>
-  </si>
-  <si>
-    <t>404,187,681 LUNA</t>
-  </si>
-  <si>
     <t>Bitcoin Cash
 BCH</t>
   </si>
   <si>
-    <t>$3,021,811,706
-4,681,523 BCH</t>
-  </si>
-  <si>
-    <t>18,827,319 BCH</t>
-  </si>
-  <si>
     <t>Binance USD
 BUSD</t>
   </si>
   <si>
-    <t>$6,506,407,390
-6,504,720,379 BUSD</t>
-  </si>
-  <si>
-    <t>12,111,758,929 BUSD</t>
-  </si>
-  <si>
     <t>Chainlink
 LINK</t>
   </si>
   <si>
-    <t>$1,437,458,065
-54,018,347 LINK</t>
-  </si>
-  <si>
     <t>447,509,554 LINK</t>
   </si>
   <si>
-    <t>LitecoinLTC</t>
-  </si>
-  <si>
     <t>PolygonMATIC</t>
   </si>
   <si>
@@ -436,9 +336,6 @@
     <t>SwissBorgCHSB</t>
   </si>
   <si>
-    <t>ICONICX</t>
-  </si>
-  <si>
     <t>HorizenZEN</t>
   </si>
   <si>
@@ -446,6 +343,109 @@
   </si>
   <si>
     <t>Pax DollarPAX</t>
+  </si>
+  <si>
+    <t>18,798,093 BTC</t>
+  </si>
+  <si>
+    <t>117,265,896 ETH</t>
+  </si>
+  <si>
+    <t>32,145,403,414 ADA</t>
+  </si>
+  <si>
+    <t>65,511,633,976 USDT</t>
+  </si>
+  <si>
+    <t>131,022,506,796 DOGE</t>
+  </si>
+  <si>
+    <t>26,983,014,185 USDC</t>
+  </si>
+  <si>
+    <t>290,803,576 SOL</t>
+  </si>
+  <si>
+    <t>611,616,289 UNI</t>
+  </si>
+  <si>
+    <t>12,175,656,191 BUSD</t>
+  </si>
+  <si>
+    <t>18,828,450 BCH</t>
+  </si>
+  <si>
+    <t>Litecoin
+LTC</t>
+  </si>
+  <si>
+    <t>66,752,615 LTC</t>
+  </si>
+  <si>
+    <t>TerraLUNA</t>
+  </si>
+  <si>
+    <t>CeloCELO</t>
+  </si>
+  <si>
+    <t>$34,159,660,831
+727,048 BTC</t>
+  </si>
+  <si>
+    <t>$18,095,123,267
+5,809,277 ETH</t>
+  </si>
+  <si>
+    <t>$6,420,464,196
+2,518,541,819 ADA</t>
+  </si>
+  <si>
+    <t>$3,327,223,181
+6,903,117 BNB</t>
+  </si>
+  <si>
+    <t>$77,107,785,681
+77,093,251,149 USDT</t>
+  </si>
+  <si>
+    <t>$4,836,870,748
+4,441,680,843 XRP</t>
+  </si>
+  <si>
+    <t>$2,460,482,456
+9,085,743,830 DOGE</t>
+  </si>
+  <si>
+    <t>$2,831,794,865
+2,831,532,603 USDC</t>
+  </si>
+  <si>
+    <t>$1,652,209,246
+68,455,640 DOT</t>
+  </si>
+  <si>
+    <t>$2,223,241,169
+29,636,325 SOL</t>
+  </si>
+  <si>
+    <t>$362,451,910
+14,112,618 UNI</t>
+  </si>
+  <si>
+    <t>$6,228,841,702
+6,228,244,148 BUSD</t>
+  </si>
+  <si>
+    <t>$3,097,772,637
+5,059,629 BCH</t>
+  </si>
+  <si>
+    <t>$1,867,787,310
+11,095,513 LTC</t>
+  </si>
+  <si>
+    <t>$1,399,059,855
+56,888,186 LINK</t>
   </si>
   <si>
     <t>0xZRX</t>
@@ -796,22 +796,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="2">
-        <v>48937.98</v>
+        <v>46984.07</v>
       </c>
       <c r="E1" s="3">
-        <v>1.7100000000000001E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="F1" s="3">
-        <v>7.4099999999999999E-2</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="G1" s="4">
-        <v>919895149927</v>
+        <v>883210847060</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="90" x14ac:dyDescent="0.25">
@@ -819,25 +819,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>3238.69</v>
+        <v>3114.87</v>
       </c>
       <c r="E2" s="3">
-        <v>1.78E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F2" s="3">
-        <v>5.7099999999999998E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="G2" s="4">
-        <v>379747236095</v>
+        <v>365267606056</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -845,25 +845,25 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>2.75</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E3" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="F3" s="3">
-        <v>0.29820000000000002</v>
+        <v>0.17030000000000001</v>
       </c>
       <c r="G3" s="4">
-        <v>88465862598</v>
+        <v>81947581780</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="90" x14ac:dyDescent="0.25">
@@ -871,25 +871,25 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>504.32</v>
+        <v>481.99</v>
       </c>
       <c r="E4" s="3">
-        <v>6.5600000000000006E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2424</v>
+        <v>0.14410000000000001</v>
       </c>
       <c r="G4" s="4">
-        <v>84794399828</v>
+        <v>81040122313</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="90" x14ac:dyDescent="0.25">
@@ -897,25 +897,25 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="F5" s="3">
         <v>1E-4</v>
       </c>
       <c r="G5" s="4">
-        <v>65492986288</v>
+        <v>65523985004</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -923,25 +923,25 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>1.17</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>1.5800000000000002E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="F6" s="3">
-        <v>4.8999999999999998E-3</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G6" s="4">
-        <v>54650965575</v>
+        <v>50652062268</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="90" x14ac:dyDescent="0.25">
@@ -949,25 +949,25 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>0.29330000000000001</v>
+        <v>0.27079999999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>7.7100000000000002E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>5.9700000000000003E-2</v>
+        <v>0.1159</v>
       </c>
       <c r="G7" s="4">
-        <v>38419979589</v>
+        <v>35481803738</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="90" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -984,16 +984,16 @@
         <v>1E-4</v>
       </c>
       <c r="F8" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>26977152771</v>
+        <v>26985513402</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -1001,25 +1001,25 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
-        <v>26.37</v>
+        <v>24.14</v>
       </c>
       <c r="E9" s="3">
-        <v>3.8300000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>6.7500000000000004E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="G9" s="4">
-        <v>26039992148</v>
+        <v>23835693777</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -1027,25 +1027,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>70.86</v>
+        <v>75.02</v>
       </c>
       <c r="E10" s="3">
-        <v>1E-3</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="F10" s="3">
-        <v>7.0099999999999996E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
       <c r="G10" s="4">
-        <v>20596375059</v>
+        <v>21815338981</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -1053,51 +1053,51 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>27.33</v>
+        <v>25.68</v>
       </c>
       <c r="E11" s="3">
-        <v>1.7100000000000001E-2</v>
+        <v>5.28E-2</v>
       </c>
       <c r="F11" s="3">
-        <v>2.3300000000000001E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="G11" s="4">
-        <v>16713491232</v>
+        <v>15708034651</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
-        <v>30.12</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>2.5399999999999999E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F12" s="3">
-        <v>2.3900000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12175713597</v>
+        <v>12176824354</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -1105,51 +1105,51 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>645.48</v>
+        <v>612.25</v>
       </c>
       <c r="E13" s="3">
-        <v>1.0500000000000001E-2</v>
+        <v>5.21E-2</v>
       </c>
       <c r="F13" s="3">
-        <v>8.9999999999999998E-4</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="G13" s="4">
-        <v>12152586973</v>
+        <v>11527772625</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>168.34</v>
       </c>
       <c r="E14" s="3">
-        <v>1E-4</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="G14" s="4">
-        <v>12114900137</v>
+        <v>11236946647</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -1157,262 +1157,262 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
-        <v>26.61</v>
+        <v>24.59</v>
       </c>
       <c r="E15" s="3">
-        <v>7.7999999999999996E-3</v>
+        <v>7.51E-2</v>
       </c>
       <c r="F15" s="3">
-        <v>1.5900000000000001E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="G15" s="4">
-        <v>11908476593</v>
+        <v>11005670929</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2">
-        <v>178.56</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
-        <v>1.54</v>
+        <v>46948.67</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
-        <v>62.02</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
-        <v>48822.03</v>
+        <v>57.57</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2">
-        <v>48.49</v>
+        <v>44.43</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2">
-        <v>0.13</v>
+        <v>59.83</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
-        <v>63.9</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2">
-        <v>77.31</v>
+        <v>73.099999999999994</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2">
-        <v>7.18</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
-        <v>0.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
-        <v>310.69</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
-        <v>26.02</v>
+        <v>293.56</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
-        <v>384.48</v>
+        <v>353.12</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
-        <v>5.18</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
-        <v>49.85</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
-        <v>0.97</v>
+        <v>69.290000000000006</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
-        <v>73.44</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D35" s="2">
-        <v>20.059999999999999</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2">
-        <v>1.73</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2">
-        <v>4.83</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2">
-        <v>57.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2">
-        <v>0.15</v>
+        <v>47093.120000000003</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2">
-        <v>48987.62</v>
+        <v>52.22</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2">
-        <v>3715.45</v>
+        <v>3525.56</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2">
-        <v>164.54</v>
+        <v>157.32</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2">
-        <v>1.08</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -1420,31 +1420,31 @@
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D47" s="2">
-        <v>2.95</v>
+        <v>137.33000000000001</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2">
-        <v>140.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D49" s="2">
         <v>0.06</v>
@@ -1452,402 +1452,402 @@
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D50" s="2">
-        <v>256.27999999999997</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D51" s="2">
-        <v>24.2</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D52" s="2">
-        <v>301.93</v>
+        <v>282.75</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2">
-        <v>0.26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D54" s="2">
-        <v>434.73</v>
+        <v>410.7</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D55" s="2">
-        <v>10.67</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D56" s="2">
-        <v>196.98</v>
+        <v>184.47</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D57" s="2">
-        <v>5.36</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D58" s="2">
-        <v>14.17</v>
+        <v>164.17</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D59" s="2">
-        <v>176.44</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D60" s="2">
-        <v>1</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D61" s="2">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D62" s="2">
-        <v>23.37</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D63" s="2">
-        <v>163.28</v>
+        <v>147.13</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D64" s="2">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D65" s="2">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D66" s="2">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D67" s="2">
-        <v>1.49</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D68" s="2">
-        <v>0.34</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D69" s="2">
-        <v>2.0499999999999998</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D70" s="2">
-        <v>0.92</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D71" s="2">
-        <v>12.43</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D72" s="2">
-        <v>12.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D73" s="2">
-        <v>37869.360000000001</v>
+        <v>36213.11</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D74" s="2">
-        <v>1</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2">
-        <v>5.69</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D76" s="2">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D77" s="2">
-        <v>0.11</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D78" s="2">
-        <v>0.14000000000000001</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2">
-        <v>21.51</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D80" s="2">
-        <v>0.86</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D81" s="2">
-        <v>12.94</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="D82" s="2">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D83" s="2">
-        <v>21.64</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D84" s="2">
-        <v>69.150000000000006</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D85" s="2">
-        <v>0.11</v>
+        <v>63.83</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D86" s="2">
-        <v>2.84</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D87" s="2">
-        <v>13.83</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D88" s="2">
-        <v>0.01</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D89" s="2">
-        <v>1.71</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D90" s="2">
-        <v>0.02</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D91" s="2">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D92" s="2">
-        <v>17.760000000000002</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D93" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D94" s="2">
-        <v>4.41</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D95" s="2">
-        <v>0.99</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D96" s="2">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D97" s="2">
-        <v>85.7</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D98" s="2">
-        <v>1.1100000000000001</v>
+        <v>15.35</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D99" s="2">
-        <v>1</v>
+        <v>78.41</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
         <v>129</v>
       </c>
       <c r="D100" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
